--- a/_._/_OLD/2024-1/SIS/_atcc1SIS_avaliadores.xlsx
+++ b/_._/_OLD/2024-1/SIS/_atcc1SIS_avaliadores.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonreis/GitHub/disciplinas/TCC1/TCC1_Privado/_._/_OLD/2024-1/SIS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD4320-7AD4-1F41-941A-826D3073E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-29960" yWindow="500" windowWidth="15960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha 1 - Table 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha 1 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Nome</t>
   </si>
@@ -25,9 +34,6 @@
     <t>Título</t>
   </si>
   <si>
-    <t>Co-orient</t>
-  </si>
-  <si>
     <t>Jordana Tomio</t>
   </si>
   <si>
@@ -37,9 +43,6 @@
     <t>Andreza</t>
   </si>
   <si>
-    <t>Pereira de Araújo Kohler</t>
-  </si>
-  <si>
     <t>SIS</t>
   </si>
   <si>
@@ -140,23 +143,27 @@
   </si>
   <si>
     <t>Sistema de Gerenciamento para Pessoas com MEI na Área de Estética</t>
+  </si>
+  <si>
+    <t>Co-orientador</t>
+  </si>
+  <si>
+    <t>Luciana Pereira de Araújo Kohler</t>
+  </si>
+  <si>
+    <t>Péricas</t>
+  </si>
+  <si>
+    <t>Valdameri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -164,16 +171,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -311,58 +315,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,7 +348,7 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -384,28 +361,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="e588ccff"/>
-      <rgbColor rgb="fff6be98"/>
+      <rgbColor rgb="E588CCFF"/>
+      <rgbColor rgb="FFF6BE98"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -604,7 +638,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -622,7 +656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +685,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,7 +710,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +735,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,7 +760,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +785,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +810,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +835,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +860,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +885,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,9 +898,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -883,7 +923,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -901,7 +941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +966,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1016,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1041,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1066,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1116,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,7 +1141,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1166,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,9 +1179,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1155,7 +1201,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1173,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1248,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1273,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1298,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1323,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1348,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1373,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1398,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1423,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1448,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,243 +1461,288 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C4" xSplit="2" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" hidden="1" width="16.3333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="110.852" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="110.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.9" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" t="s" s="3">
+      <c r="D1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="12.9" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" ht="13.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s" s="6">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" ht="13.1" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="8">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
+    </row>
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>10</v>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s" s="14">
-        <v>14</v>
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s" s="14">
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="14">
-        <v>24</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" ht="12.9" customHeight="1">
-      <c r="A9" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="12.9" customHeight="1">
-      <c r="A11" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="12.9" customHeight="1">
-      <c r="A12" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s" s="14">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="E1:E3"/>
@@ -1659,12 +1750,12 @@
     <mergeCell ref="B1:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C5 C7:C12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Dalton"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
